--- a/Romance_Database.xlsx
+++ b/Romance_Database.xlsx
@@ -1856,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1515AB1A-F7B1-4782-9B4F-EFAF6062426C}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
